--- a/tools/matrix-example.xlsx
+++ b/tools/matrix-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmazurki/Downloads/CISCO_LIVE/nac-ise-simple-example/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmazurki/Downloads/demo/nac-ise-simple-example/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE50E11-69BA-A740-B7F1-8EECD69D0602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD29EEF3-1929-B94F-80B0-64A0AF9EFDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Sales_Force</t>
-  </si>
-  <si>
-    <t>R&amp;D_Unit</t>
   </si>
   <si>
     <t>Legal_Team</t>
@@ -207,7 +204,10 @@
     <t>Social_Media</t>
   </si>
   <si>
-    <t>E-commerce_Team</t>
+    <t>RD_Unit</t>
+  </si>
+  <si>
+    <t>Ecommerce_Team</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1370,10 @@
   <dimension ref="A1:XBI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR22" sqref="AR22"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1401,106 +1401,106 @@
         <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="AP1" s="13" t="s">
         <v>57</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" s="11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="17" spans="1:16285">
       <c r="A17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="18" spans="1:16285">
       <c r="A18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="19" spans="1:16285">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20" spans="1:16285">
       <c r="A20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="21" spans="1:16285">
       <c r="A21" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="22" spans="1:16285">
       <c r="A22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="6"/>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="23" spans="1:16285">
       <c r="A23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="24" spans="1:16285">
       <c r="A24" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="25" spans="1:16285">
       <c r="A25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="26" spans="1:16285">
       <c r="A26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="6"/>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="27" spans="1:16285">
       <c r="A27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="28" spans="1:16285">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="29" spans="1:16285">
       <c r="A29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="30" spans="1:16285" s="5" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -19187,7 +19187,7 @@
     </row>
     <row r="31" spans="1:16285">
       <c r="A31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="32" spans="1:16285">
       <c r="A32" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -19283,7 +19283,7 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -19331,7 +19331,7 @@
     </row>
     <row r="34" spans="1:42">
       <c r="A34" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -19379,7 +19379,7 @@
     </row>
     <row r="35" spans="1:42">
       <c r="A35" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
@@ -19427,7 +19427,7 @@
     </row>
     <row r="36" spans="1:42">
       <c r="A36" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
@@ -19475,7 +19475,7 @@
     </row>
     <row r="37" spans="1:42">
       <c r="A37" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
@@ -19521,7 +19521,7 @@
     </row>
     <row r="38" spans="1:42">
       <c r="A38" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
@@ -19569,7 +19569,7 @@
     </row>
     <row r="39" spans="1:42">
       <c r="A39" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
@@ -19617,7 +19617,7 @@
     </row>
     <row r="40" spans="1:42">
       <c r="A40" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="41" spans="1:42">
       <c r="A41" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="15"/>
